--- a/Checklists/Mobile_App_Security_Checklist-Korean_1.1.3.1.xlsx
+++ b/Checklists/Mobile_App_Security_Checklist-Korean_1.1.3.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\owasp-mstg\owasp-mstg-20200426-2049.work\Checklists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\owasp-mstg\checklist.work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE4A13F-BF19-4FE6-BA42-61FF6B465AC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D394D80-F5B8-4B12-95A2-1FA5CD95295B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="70" yWindow="140" windowWidth="18840" windowHeight="9920" tabRatio="573" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="280" windowWidth="18780" windowHeight="9920" tabRatio="573" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -2647,38 +2647,38 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3976,46 +3976,46 @@
   <sheetData>
     <row r="1" spans="2:5" ht="8" customHeight="1"/>
     <row r="2" spans="2:5" ht="15.5" customHeight="1">
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="146" t="s">
         <v>294</v>
       </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="138"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="138"/>
-      <c r="C4" s="138"/>
-      <c r="D4" s="138"/>
+      <c r="B4" s="146"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="138"/>
-      <c r="C5" s="138"/>
-      <c r="D5" s="138"/>
+      <c r="B5" s="146"/>
+      <c r="C5" s="146"/>
+      <c r="D5" s="146"/>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="138"/>
-      <c r="C6" s="138"/>
-      <c r="D6" s="138"/>
+      <c r="B6" s="146"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="146"/>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="138"/>
-      <c r="C7" s="138"/>
-      <c r="D7" s="138"/>
+      <c r="B7" s="146"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
     </row>
     <row r="8" spans="2:5" hidden="1">
-      <c r="B8" s="138"/>
-      <c r="C8" s="138"/>
-      <c r="D8" s="138"/>
+      <c r="B8" s="146"/>
+      <c r="C8" s="146"/>
+      <c r="D8" s="146"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="139"/>
-      <c r="C9" s="139"/>
-      <c r="D9" s="140"/>
+      <c r="B9" s="142"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="143"/>
       <c r="E9" s="23"/>
     </row>
     <row r="10" spans="2:5">
@@ -4026,102 +4026,102 @@
       <c r="D10" s="26"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="141" t="s">
+      <c r="B11" s="147" t="s">
         <v>230</v>
       </c>
-      <c r="C11" s="141"/>
+      <c r="C11" s="147"/>
       <c r="D11" s="131">
         <v>1.2</v>
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="142" t="s">
+      <c r="B12" s="144" t="s">
         <v>250</v>
       </c>
-      <c r="C12" s="142"/>
+      <c r="C12" s="144"/>
       <c r="D12" s="32" t="str">
         <f>HYPERLINK(CONCATENATE( "https://github.com/OWASP/owasp-masvs/blob/", MASVS_VERSION, "/Document/"))</f>
         <v>https://github.com/OWASP/owasp-masvs/blob/1.2/Document/</v>
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="143" t="s">
+      <c r="B13" s="148" t="s">
         <v>231</v>
       </c>
-      <c r="C13" s="143"/>
+      <c r="C13" s="148"/>
       <c r="D13" s="33" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="142" t="s">
+      <c r="B14" s="144" t="s">
         <v>251</v>
       </c>
-      <c r="C14" s="142"/>
+      <c r="C14" s="144"/>
       <c r="D14" s="34" t="str">
         <f>HYPERLINK(CONCATENATE( "https://github.com/OWASP/owasp-mstg/blob/", MSTG_VERSION, "/Document/"))</f>
         <v>https://github.com/OWASP/owasp-mstg/blob/1.1.3/Document/</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="32" customHeight="1">
-      <c r="B15" s="144" t="s">
+      <c r="B15" s="145" t="s">
         <v>229</v>
       </c>
-      <c r="C15" s="144"/>
-      <c r="D15" s="144"/>
+      <c r="C15" s="145"/>
+      <c r="D15" s="145"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="145" t="s">
+      <c r="B16" s="140" t="s">
         <v>232</v>
       </c>
-      <c r="C16" s="145"/>
+      <c r="C16" s="140"/>
       <c r="D16" s="33" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="142" t="s">
+      <c r="B17" s="144" t="s">
         <v>233</v>
       </c>
-      <c r="C17" s="142"/>
+      <c r="C17" s="144"/>
       <c r="D17" s="33"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="145" t="s">
+      <c r="B18" s="140" t="s">
         <v>234</v>
       </c>
-      <c r="C18" s="145"/>
+      <c r="C18" s="140"/>
       <c r="D18" s="33"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="145" t="s">
+      <c r="B19" s="140" t="s">
         <v>235</v>
       </c>
-      <c r="C19" s="145"/>
+      <c r="C19" s="140"/>
       <c r="D19" s="33"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="145" t="s">
+      <c r="B20" s="140" t="s">
         <v>236</v>
       </c>
-      <c r="C20" s="145"/>
+      <c r="C20" s="140"/>
       <c r="D20" s="33"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="145" t="s">
+      <c r="B21" s="140" t="s">
         <v>237</v>
       </c>
-      <c r="C21" s="145"/>
+      <c r="C21" s="140"/>
       <c r="D21" s="33" t="str">
         <f>"앱 " &amp; D25 &amp; " 내에서 사용 가능한 모든 기능"</f>
         <v>앱 &lt;AppName&gt; 내에서 사용 가능한 모든 기능</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="70.5" customHeight="1">
-      <c r="B22" s="145" t="s">
+      <c r="B22" s="140" t="s">
         <v>238</v>
       </c>
-      <c r="C22" s="145"/>
+      <c r="C22" s="140"/>
       <c r="D22" s="33" t="str">
         <f>D16&amp;"(와)과 협의 후 "&amp;D25&amp;"에 대한 검증 수준은 Level 1 요구사항만 적용하기로 결정" &amp;
 "
@@ -4135,9 +4135,9 @@
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="139"/>
-      <c r="C23" s="139"/>
-      <c r="D23" s="140"/>
+      <c r="B23" s="142"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="143"/>
       <c r="E23" s="23"/>
     </row>
     <row r="24" spans="2:5">
@@ -4157,46 +4157,46 @@
       </c>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="145" t="s">
+      <c r="B26" s="140" t="s">
         <v>240</v>
       </c>
-      <c r="C26" s="145"/>
+      <c r="C26" s="140"/>
       <c r="D26" s="33"/>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="145" t="s">
+      <c r="B27" s="140" t="s">
         <v>241</v>
       </c>
-      <c r="C27" s="145"/>
+      <c r="C27" s="140"/>
       <c r="D27" s="33"/>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="145" t="s">
+      <c r="B28" s="140" t="s">
         <v>242</v>
       </c>
-      <c r="C28" s="145"/>
+      <c r="C28" s="140"/>
       <c r="D28" s="33"/>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="145" t="s">
+      <c r="B29" s="140" t="s">
         <v>243</v>
       </c>
-      <c r="C29" s="145"/>
+      <c r="C29" s="140"/>
       <c r="D29" s="33"/>
     </row>
     <row r="30" spans="2:5" ht="52" customHeight="1">
-      <c r="B30" s="146" t="s">
+      <c r="B30" s="141" t="s">
         <v>253</v>
       </c>
-      <c r="C30" s="146"/>
+      <c r="C30" s="141"/>
       <c r="D30" s="33" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="139"/>
-      <c r="C31" s="139"/>
-      <c r="D31" s="140"/>
+      <c r="B31" s="142"/>
+      <c r="C31" s="142"/>
+      <c r="D31" s="143"/>
       <c r="E31" s="23"/>
     </row>
     <row r="32" spans="2:5">
@@ -4207,87 +4207,113 @@
       <c r="D32" s="29"/>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="147"/>
-      <c r="C33" s="147"/>
-      <c r="D33" s="147"/>
+      <c r="B33" s="139"/>
+      <c r="C33" s="139"/>
+      <c r="D33" s="139"/>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="148" t="s">
+      <c r="B34" s="138" t="s">
         <v>245</v>
       </c>
-      <c r="C34" s="148"/>
+      <c r="C34" s="138"/>
       <c r="D34" s="35"/>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="148" t="s">
+      <c r="B35" s="138" t="s">
         <v>246</v>
       </c>
-      <c r="C35" s="148"/>
+      <c r="C35" s="138"/>
       <c r="D35" s="35"/>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="148" t="s">
+      <c r="B36" s="138" t="s">
         <v>247</v>
       </c>
-      <c r="C36" s="148"/>
+      <c r="C36" s="138"/>
       <c r="D36" s="35"/>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="148" t="s">
+      <c r="B37" s="138" t="s">
         <v>248</v>
       </c>
-      <c r="C37" s="148"/>
+      <c r="C37" s="138"/>
       <c r="D37" s="36"/>
     </row>
     <row r="38" spans="2:4">
-      <c r="B38" s="148" t="s">
+      <c r="B38" s="138" t="s">
         <v>249</v>
       </c>
-      <c r="C38" s="148"/>
+      <c r="C38" s="138"/>
       <c r="D38" s="35"/>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="147"/>
-      <c r="C39" s="147"/>
-      <c r="D39" s="147"/>
+      <c r="B39" s="139"/>
+      <c r="C39" s="139"/>
+      <c r="D39" s="139"/>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="148" t="s">
+      <c r="B40" s="138" t="s">
         <v>245</v>
       </c>
-      <c r="C40" s="148"/>
+      <c r="C40" s="138"/>
       <c r="D40" s="35"/>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="148" t="s">
+      <c r="B41" s="138" t="s">
         <v>246</v>
       </c>
-      <c r="C41" s="148"/>
+      <c r="C41" s="138"/>
       <c r="D41" s="35"/>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="148" t="s">
+      <c r="B42" s="138" t="s">
         <v>247</v>
       </c>
-      <c r="C42" s="148"/>
+      <c r="C42" s="138"/>
       <c r="D42" s="35"/>
     </row>
     <row r="43" spans="2:4">
-      <c r="B43" s="148" t="s">
+      <c r="B43" s="138" t="s">
         <v>248</v>
       </c>
-      <c r="C43" s="148"/>
+      <c r="C43" s="138"/>
       <c r="D43" s="36"/>
     </row>
     <row r="44" spans="2:4">
-      <c r="B44" s="148" t="s">
+      <c r="B44" s="138" t="s">
         <v>249</v>
       </c>
-      <c r="C44" s="148"/>
+      <c r="C44" s="138"/>
       <c r="D44" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B2:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B38:C38"/>
@@ -4295,32 +4321,6 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B2:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -6137,7 +6137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMK94"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="20"/>
   <cols>
@@ -8305,7 +8305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMK31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="20"/>
   <cols>
@@ -8837,7 +8837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:M94"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="20"/>
   <cols>
@@ -11076,7 +11076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:H34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="20"/>
   <cols>
